--- a/Informes/Sabana_Notas_1s/Sabana_Notas_1s.xlsx
+++ b/Informes/Sabana_Notas_1s/Sabana_Notas_1s.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>Radicado</t>
   </si>
@@ -598,6 +598,57 @@
   </si>
   <si>
     <t>3185302133</t>
+  </si>
+  <si>
+    <t>2:33 p.m.</t>
+  </si>
+  <si>
+    <t>Maria Claudia Acosta Guerra</t>
+  </si>
+  <si>
+    <t>97112621575</t>
+  </si>
+  <si>
+    <t>acostaguerra@gmail.com</t>
+  </si>
+  <si>
+    <t>TÉCNICO LABORAL POR COMPETENCIAS EN OPERACIÓN DE PROGRAMAS INFORMÁTICOS Y BASES DE DATOS</t>
+  </si>
+  <si>
+    <t>1019135840</t>
+  </si>
+  <si>
+    <t>21/02/2023</t>
+  </si>
+  <si>
+    <t>3114866604</t>
+  </si>
+  <si>
+    <t>10:21 a.m.</t>
+  </si>
+  <si>
+    <t>Diego Mora Pereira</t>
+  </si>
+  <si>
+    <t>1030701629</t>
+  </si>
+  <si>
+    <t>diegomorapereira1012@gmail.com</t>
+  </si>
+  <si>
+    <t>TÉCNICO LABORAL POR COMPETENCIAS EN SEGURIDAD OCUPACIONAL</t>
+  </si>
+  <si>
+    <t>TÉCNICO LABORAL POR COMPETENCIAS EN AUXILIAR DE SEGURIDAD EN EL TRABAJO</t>
+  </si>
+  <si>
+    <t>24/02/2023</t>
+  </si>
+  <si>
+    <t>3102896885</t>
+  </si>
+  <si>
+    <t>ya termine la carrera</t>
   </si>
 </sst>
 </file>
@@ -659,8 +710,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SolicitudInstitucionalReporteViewModel_1" displayName="SolicitudInstitucionalReporteViewModel_1" ref="A1:AA27">
-  <autoFilter ref="A1:AA27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SolicitudInstitucionalReporteViewModel_1" displayName="SolicitudInstitucionalReporteViewModel_1" ref="A1:AA29">
+  <autoFilter ref="A1:AA29"/>
   <tableColumns count="27">
     <tableColumn id="1" name="Radicado"/>
     <tableColumn id="2" name="Tiempo en Transito"/>
@@ -696,7 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA28"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -711,7 +762,7 @@
     <col min="7" max="7" width="37.1964530944824" customWidth="1"/>
     <col min="8" max="8" width="30.9322242736816" customWidth="1"/>
     <col min="9" max="9" width="35.617862701416" customWidth="1"/>
-    <col min="10" max="10" width="81.90234375" customWidth="1"/>
+    <col min="10" max="10" width="96.5536651611328" customWidth="1"/>
     <col min="11" max="11" width="17.5937786102295" customWidth="1"/>
     <col min="12" max="12" width="30.3961372375488" customWidth="1"/>
     <col min="13" max="13" width="21.0742473602295" customWidth="1"/>
@@ -722,7 +773,7 @@
     <col min="18" max="18" width="31.8092708587646" customWidth="1"/>
     <col min="19" max="19" width="33.0962867736816" customWidth="1"/>
     <col min="20" max="20" width="22.4512920379639" customWidth="1"/>
-    <col min="21" max="21" width="81.90234375" customWidth="1"/>
+    <col min="21" max="21" width="96.5536651611328" customWidth="1"/>
     <col min="22" max="22" width="21.1946887969971" customWidth="1"/>
     <col min="23" max="23" width="19.3616352081299" customWidth="1"/>
     <col min="24" max="24" width="52.5365676879883" customWidth="1"/>
@@ -819,7 +870,7 @@
         <v>59554</v>
       </c>
       <c r="B2" s="5">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C2" s="6">
         <v>44930.5085256944</v>
@@ -902,7 +953,7 @@
         <v>59554</v>
       </c>
       <c r="B3" s="5">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C3" s="6">
         <v>44930.5085256944</v>
@@ -985,7 +1036,7 @@
         <v>59613</v>
       </c>
       <c r="B4" s="5">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6">
         <v>44931.4907380787</v>
@@ -1068,7 +1119,7 @@
         <v>59613</v>
       </c>
       <c r="B5" s="5">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C5" s="6">
         <v>44931.4907380787</v>
@@ -1151,7 +1202,7 @@
         <v>59866</v>
       </c>
       <c r="B6" s="5">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6">
         <v>44937.564937581</v>
@@ -1224,7 +1275,7 @@
         <v>59921</v>
       </c>
       <c r="B7" s="5">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6">
         <v>44938.3978695949</v>
@@ -1307,7 +1358,7 @@
         <v>59921</v>
       </c>
       <c r="B8" s="5">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6">
         <v>44938.3978695949</v>
@@ -1390,7 +1441,7 @@
         <v>59933</v>
       </c>
       <c r="B9" s="5">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6">
         <v>44938.4796079514</v>
@@ -1463,7 +1514,7 @@
         <v>60015</v>
       </c>
       <c r="B10" s="5">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C10" s="6">
         <v>44939.3781462963</v>
@@ -1546,7 +1597,7 @@
         <v>60015</v>
       </c>
       <c r="B11" s="5">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C11" s="6">
         <v>44939.3781462963</v>
@@ -1629,7 +1680,7 @@
         <v>60331</v>
       </c>
       <c r="B12" s="5">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C12" s="6">
         <v>44944.4020761574</v>
@@ -1712,7 +1763,7 @@
         <v>60331</v>
       </c>
       <c r="B13" s="5">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C13" s="6">
         <v>44944.4020761574</v>
@@ -1795,7 +1846,7 @@
         <v>60358</v>
       </c>
       <c r="B14" s="5">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C14" s="6">
         <v>44944.5479141204</v>
@@ -1878,7 +1929,7 @@
         <v>60358</v>
       </c>
       <c r="B15" s="5">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C15" s="6">
         <v>44944.5479141204</v>
@@ -1961,7 +2012,7 @@
         <v>60894</v>
       </c>
       <c r="B16" s="5">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C16" s="6">
         <v>44950.6821927083</v>
@@ -2034,7 +2085,7 @@
         <v>61397</v>
       </c>
       <c r="B17" s="5">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6">
         <v>44956.6890259607</v>
@@ -2107,7 +2158,7 @@
         <v>61402</v>
       </c>
       <c r="B18" s="5">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C18" s="6">
         <v>44956.6961732639</v>
@@ -2180,7 +2231,7 @@
         <v>61404</v>
       </c>
       <c r="B19" s="5">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C19" s="6">
         <v>44956.7041137732</v>
@@ -2253,7 +2304,7 @@
         <v>61574</v>
       </c>
       <c r="B20" s="5">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6">
         <v>44957.851291169</v>
@@ -2336,7 +2387,7 @@
         <v>61620</v>
       </c>
       <c r="B21" s="5">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6">
         <v>44958.4445203357</v>
@@ -2419,7 +2470,7 @@
         <v>61760</v>
       </c>
       <c r="B22" s="5">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C22" s="6">
         <v>44959.6836011227</v>
@@ -2492,7 +2543,7 @@
         <v>61916</v>
       </c>
       <c r="B23" s="5">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C23" s="6">
         <v>44960.8203810532</v>
@@ -2565,7 +2616,7 @@
         <v>62173</v>
       </c>
       <c r="B24" s="5">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C24" s="6">
         <v>44963.4935478356</v>
@@ -2638,7 +2689,7 @@
         <v>62680</v>
       </c>
       <c r="B25" s="5">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C25" s="6">
         <v>44965.3014347222</v>
@@ -2711,7 +2762,7 @@
         <v>63108</v>
       </c>
       <c r="B26" s="5">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C26" s="6">
         <v>44966.6582956829</v>
@@ -2794,7 +2845,7 @@
         <v>63108</v>
       </c>
       <c r="B27" s="5">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C27" s="6">
         <v>44966.6582956829</v>
@@ -2873,32 +2924,178 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
+      <c r="A28" s="5">
+        <v>65029</v>
+      </c>
+      <c r="B28" s="5">
+        <v>13</v>
+      </c>
+      <c r="C28" s="6">
+        <v>44978.6064027778</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA28" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5">
+        <v>65321</v>
+      </c>
+      <c r="B29" s="5">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6">
+        <v>44981.4316254282</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA29" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
     </row>
   </sheetData>
   <headerFooter/>

--- a/Informes/Sabana_Notas_1s/Sabana_Notas_1s.xlsx
+++ b/Informes/Sabana_Notas_1s/Sabana_Notas_1s.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
   <si>
     <t>Radicado</t>
   </si>
@@ -649,6 +649,162 @@
   </si>
   <si>
     <t>ya termine la carrera</t>
+  </si>
+  <si>
+    <t>9:07 a.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edwin Yesid  Triviño Pérez</t>
+  </si>
+  <si>
+    <t>1071162640</t>
+  </si>
+  <si>
+    <t>edwtrivi7@gmail.com</t>
+  </si>
+  <si>
+    <t>CONOCIMIENTOS ACADÉMICOS EN INGLÉS</t>
+  </si>
+  <si>
+    <t>Apreciado estudiante hemos recibido su solicitud, por favor estar atento al seguimiento de la misma, en tres días hábiles recibirá el documento</t>
+  </si>
+  <si>
+    <t>14/03/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A quien corresponda </t>
+  </si>
+  <si>
+    <t>3219807799</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>8:22 p.m.</t>
+  </si>
+  <si>
+    <t>Liney Martinez Rivera</t>
+  </si>
+  <si>
+    <t>1063358422</t>
+  </si>
+  <si>
+    <t>riveraliney18@gmail.com</t>
+  </si>
+  <si>
+    <t>31/07/2007</t>
+  </si>
+  <si>
+    <t>15/03/2023</t>
+  </si>
+  <si>
+    <t>unigermana</t>
+  </si>
+  <si>
+    <t>3133342783</t>
+  </si>
+  <si>
+    <t>nota del seminario de ingles</t>
+  </si>
+  <si>
+    <t>5:16 p.m.</t>
+  </si>
+  <si>
+    <t>Monica Janneth Lemos Barrios</t>
+  </si>
+  <si>
+    <t>52.782.496</t>
+  </si>
+  <si>
+    <t>monycalemos@gmail.com</t>
+  </si>
+  <si>
+    <t>22/03/2023</t>
+  </si>
+  <si>
+    <t>9739607746</t>
+  </si>
+  <si>
+    <t>12:41 p.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica Janneth  Lemos Barrios</t>
+  </si>
+  <si>
+    <t>52782496</t>
+  </si>
+  <si>
+    <t>3:36 p.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeisson Andrey  Sanabria Triviño</t>
+  </si>
+  <si>
+    <t>1071162412</t>
+  </si>
+  <si>
+    <t>jeissonsnbr@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Calera </t>
+  </si>
+  <si>
+    <t>23/03/2023</t>
+  </si>
+  <si>
+    <t>FOES</t>
+  </si>
+  <si>
+    <t>3202469979</t>
+  </si>
+  <si>
+    <t>2:31 p.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Felipe  Fuentes Martinez</t>
+  </si>
+  <si>
+    <t>1000708777</t>
+  </si>
+  <si>
+    <t>d.felipefuentes@gmail.com</t>
+  </si>
+  <si>
+    <t>29/03/2023</t>
+  </si>
+  <si>
+    <t>UNIGERMANA</t>
+  </si>
+  <si>
+    <t>301 6663909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADEMÁS LAS NOTAS DE SECRETARIO EJECUTIV </t>
+  </si>
+  <si>
+    <t>5:49 p.m.</t>
+  </si>
+  <si>
+    <t>Juan Nicolas Amezquita Cardenas</t>
+  </si>
+  <si>
+    <t>1021313115</t>
+  </si>
+  <si>
+    <t>jjuannicolasamezquitaj@gmail.com</t>
+  </si>
+  <si>
+    <t>Bogota D.C</t>
+  </si>
+  <si>
+    <t>17/04/2023</t>
+  </si>
+  <si>
+    <t>Colsubsidio</t>
+  </si>
+  <si>
+    <t>3228357309</t>
   </si>
 </sst>
 </file>
@@ -710,8 +866,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SolicitudInstitucionalReporteViewModel_1" displayName="SolicitudInstitucionalReporteViewModel_1" ref="A1:AA29">
-  <autoFilter ref="A1:AA29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SolicitudInstitucionalReporteViewModel_1" displayName="SolicitudInstitucionalReporteViewModel_1" ref="A1:AA39">
+  <autoFilter ref="A1:AA39"/>
   <tableColumns count="27">
     <tableColumn id="1" name="Radicado"/>
     <tableColumn id="2" name="Tiempo en Transito"/>
@@ -747,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -778,7 +934,7 @@
     <col min="23" max="23" width="19.3616352081299" customWidth="1"/>
     <col min="24" max="24" width="52.5365676879883" customWidth="1"/>
     <col min="25" max="25" width="29.2915077209473" customWidth="1"/>
-    <col min="26" max="26" width="42.0631713867188" customWidth="1"/>
+    <col min="26" max="26" width="42.2309532165527" customWidth="1"/>
     <col min="27" max="27" width="21.6942253112793" customWidth="1"/>
   </cols>
   <sheetData>
@@ -870,7 +1026,7 @@
         <v>59554</v>
       </c>
       <c r="B2" s="5">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C2" s="6">
         <v>44930.5085256944</v>
@@ -953,7 +1109,7 @@
         <v>59554</v>
       </c>
       <c r="B3" s="5">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C3" s="6">
         <v>44930.5085256944</v>
@@ -1036,7 +1192,7 @@
         <v>59613</v>
       </c>
       <c r="B4" s="5">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C4" s="6">
         <v>44931.4907380787</v>
@@ -1119,7 +1275,7 @@
         <v>59613</v>
       </c>
       <c r="B5" s="5">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C5" s="6">
         <v>44931.4907380787</v>
@@ -1202,7 +1358,7 @@
         <v>59866</v>
       </c>
       <c r="B6" s="5">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C6" s="6">
         <v>44937.564937581</v>
@@ -1275,7 +1431,7 @@
         <v>59921</v>
       </c>
       <c r="B7" s="5">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C7" s="6">
         <v>44938.3978695949</v>
@@ -1358,7 +1514,7 @@
         <v>59921</v>
       </c>
       <c r="B8" s="5">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C8" s="6">
         <v>44938.3978695949</v>
@@ -1441,7 +1597,7 @@
         <v>59933</v>
       </c>
       <c r="B9" s="5">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C9" s="6">
         <v>44938.4796079514</v>
@@ -1514,7 +1670,7 @@
         <v>60015</v>
       </c>
       <c r="B10" s="5">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C10" s="6">
         <v>44939.3781462963</v>
@@ -1597,7 +1753,7 @@
         <v>60015</v>
       </c>
       <c r="B11" s="5">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C11" s="6">
         <v>44939.3781462963</v>
@@ -1680,7 +1836,7 @@
         <v>60331</v>
       </c>
       <c r="B12" s="5">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C12" s="6">
         <v>44944.4020761574</v>
@@ -1763,7 +1919,7 @@
         <v>60331</v>
       </c>
       <c r="B13" s="5">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C13" s="6">
         <v>44944.4020761574</v>
@@ -1846,7 +2002,7 @@
         <v>60358</v>
       </c>
       <c r="B14" s="5">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C14" s="6">
         <v>44944.5479141204</v>
@@ -1929,7 +2085,7 @@
         <v>60358</v>
       </c>
       <c r="B15" s="5">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C15" s="6">
         <v>44944.5479141204</v>
@@ -2012,7 +2168,7 @@
         <v>60894</v>
       </c>
       <c r="B16" s="5">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C16" s="6">
         <v>44950.6821927083</v>
@@ -2085,7 +2241,7 @@
         <v>61397</v>
       </c>
       <c r="B17" s="5">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C17" s="6">
         <v>44956.6890259607</v>
@@ -2158,7 +2314,7 @@
         <v>61402</v>
       </c>
       <c r="B18" s="5">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C18" s="6">
         <v>44956.6961732639</v>
@@ -2231,7 +2387,7 @@
         <v>61404</v>
       </c>
       <c r="B19" s="5">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C19" s="6">
         <v>44956.7041137732</v>
@@ -2304,7 +2460,7 @@
         <v>61574</v>
       </c>
       <c r="B20" s="5">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C20" s="6">
         <v>44957.851291169</v>
@@ -2387,7 +2543,7 @@
         <v>61620</v>
       </c>
       <c r="B21" s="5">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C21" s="6">
         <v>44958.4445203357</v>
@@ -2470,7 +2626,7 @@
         <v>61760</v>
       </c>
       <c r="B22" s="5">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C22" s="6">
         <v>44959.6836011227</v>
@@ -2543,7 +2699,7 @@
         <v>61916</v>
       </c>
       <c r="B23" s="5">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C23" s="6">
         <v>44960.8203810532</v>
@@ -2616,7 +2772,7 @@
         <v>62173</v>
       </c>
       <c r="B24" s="5">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C24" s="6">
         <v>44963.4935478356</v>
@@ -2689,7 +2845,7 @@
         <v>62680</v>
       </c>
       <c r="B25" s="5">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C25" s="6">
         <v>44965.3014347222</v>
@@ -2762,7 +2918,7 @@
         <v>63108</v>
       </c>
       <c r="B26" s="5">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C26" s="6">
         <v>44966.6582956829</v>
@@ -2845,7 +3001,7 @@
         <v>63108</v>
       </c>
       <c r="B27" s="5">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C27" s="6">
         <v>44966.6582956829</v>
@@ -2928,7 +3084,7 @@
         <v>65029</v>
       </c>
       <c r="B28" s="5">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C28" s="6">
         <v>44978.6064027778</v>
@@ -3001,7 +3157,7 @@
         <v>65321</v>
       </c>
       <c r="B29" s="5">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C29" s="6">
         <v>44981.4316254282</v>
@@ -3070,32 +3226,822 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
+      <c r="A30" s="5">
+        <v>66470</v>
+      </c>
+      <c r="B30" s="5">
+        <v>38</v>
+      </c>
+      <c r="C30" s="6">
+        <v>44999.380130787</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="6">
+        <v>45012.6850135764</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y30" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z30" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA30" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5">
+        <v>66470</v>
+      </c>
+      <c r="B31" s="5">
+        <v>38</v>
+      </c>
+      <c r="C31" s="6">
+        <v>44999.380130787</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="6">
+        <v>45012.6959283218</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5">
+        <v>66641</v>
+      </c>
+      <c r="B32" s="5">
+        <v>37</v>
+      </c>
+      <c r="C32" s="6">
+        <v>45000.8491304745</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="V32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="X32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA32" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5">
+        <v>67031</v>
+      </c>
+      <c r="B33" s="5">
+        <v>30</v>
+      </c>
+      <c r="C33" s="6">
+        <v>45007.7194602662</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="6">
+        <v>45012.6851181366</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="X33" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z33" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA33" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5">
+        <v>67031</v>
+      </c>
+      <c r="B34" s="5">
+        <v>30</v>
+      </c>
+      <c r="C34" s="6">
+        <v>45007.7194602662</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="6">
+        <v>45012.7125091088</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="X34" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z34" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA34" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5">
+        <v>67086</v>
+      </c>
+      <c r="B35" s="5">
+        <v>29</v>
+      </c>
+      <c r="C35" s="6">
+        <v>45008.5285145023</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5">
+        <v>67102</v>
+      </c>
+      <c r="B36" s="5">
+        <v>29</v>
+      </c>
+      <c r="C36" s="6">
+        <v>45008.6502930208</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="6">
+        <v>45012.6852040509</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R36" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="U36" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="V36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="X36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA36" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5">
+        <v>67102</v>
+      </c>
+      <c r="B37" s="5">
+        <v>29</v>
+      </c>
+      <c r="C37" s="6">
+        <v>45008.6502930208</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="6">
+        <v>45012.7167430903</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="X37" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y37" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA37" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5">
+        <v>67408</v>
+      </c>
+      <c r="B38" s="5">
+        <v>23</v>
+      </c>
+      <c r="C38" s="6">
+        <v>45014.6055131597</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="V38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W38" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="X38" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y38" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z38" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA38" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5">
+        <v>68555</v>
+      </c>
+      <c r="B39" s="5">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6">
+        <v>45033.7428577199</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W39" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="X39" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y39" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
     </row>
   </sheetData>
   <headerFooter/>
